--- a/sample_auto/newBook.xlsx
+++ b/sample_auto/newBook.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="510" yWindow="555" windowWidth="20175" windowHeight="9675" activeTab="1"/>
+    <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="基本操作サンプル" sheetId="1" r:id="rId1"/>
-    <sheet name="フォントサンプル" sheetId="2" r:id="rId2"/>
+    <sheet name="基本操作サンプル" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="フォントサンプル" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="3">
   <si>
     <t>Python ワールド</t>
   </si>
@@ -25,52 +26,39 @@
   <si>
     <t>Python入門</t>
   </si>
-  <si>
-    <t>['hair', 'medium', 'dashDot', 'dotted', 'mediumDashDot', 'dashed', 'mediumDashed', 'mediumDashDotDot', 'dashDotD
-ot', 'slantDashDot', 'double', 'thick', 'thin']</t>
-    <phoneticPr fontId="2"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color theme="1"/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <i/>
+      <name val="メイリオ"/>
+      <b val="1"/>
+      <i val="1"/>
+      <color rgb="00F00000"/>
       <sz val="24"/>
-      <color rgb="FFF00000"/>
-      <name val="メイリオ"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="6"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF0F0F0"/>
-        <bgColor rgb="FFBB0000"/>
+        <fgColor rgb="30F0F0F0"/>
+        <bgColor rgb="BBBB0000"/>
       </patternFill>
     </fill>
   </fills>
@@ -99,25 +87,16 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+  <cellXfs count="2">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -405,14 +384,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A2:B100"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -420,529 +405,524 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:2">
       <c r="A12" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:2">
       <c r="A13" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:2">
       <c r="A14" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:2">
       <c r="A15" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:2">
       <c r="A16" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:2">
       <c r="A17" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:2">
       <c r="A18" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:2">
       <c r="A19" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:2">
       <c r="A20" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:2">
       <c r="A21" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:2">
       <c r="A22" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:2">
       <c r="A23" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:2">
       <c r="A24" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:2">
       <c r="A25" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:2">
       <c r="A26" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:2">
       <c r="A27" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:2">
       <c r="A28" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:2">
       <c r="A29" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:2">
       <c r="A30" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:2">
       <c r="A31" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:2">
       <c r="A32" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:2">
       <c r="A33" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:2">
       <c r="A34" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:2">
       <c r="A35" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:2">
       <c r="A36" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:2">
       <c r="A37" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:2">
       <c r="A38" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:2">
       <c r="A39" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:2">
       <c r="A40" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:2">
       <c r="A41" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:2">
       <c r="A42" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:2">
       <c r="A43" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:2">
       <c r="A44" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:2">
       <c r="A45" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:2">
       <c r="A46" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:2">
       <c r="A47" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:2">
       <c r="A48" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:2">
       <c r="A49" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:2">
       <c r="A50" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:2">
       <c r="A51" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:2">
       <c r="A52" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:2">
       <c r="A53" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:2">
       <c r="A54" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:2">
       <c r="A55" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:2">
       <c r="A56" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:2">
       <c r="A57" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:2">
       <c r="A58" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:2">
       <c r="A59" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:2">
       <c r="A60" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:2">
       <c r="A61" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:2">
       <c r="A62" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:2">
       <c r="A63" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:2">
       <c r="A64" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:2">
       <c r="A65" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:2">
       <c r="A66" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:2">
       <c r="A67" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:2">
       <c r="A68" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:2">
       <c r="A69" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:2">
       <c r="A70" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:2">
       <c r="A71" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:2">
       <c r="A72" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:2">
       <c r="A73" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:2">
       <c r="A74" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:2">
       <c r="A75" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:2">
       <c r="A76" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:2">
       <c r="A77" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:2">
       <c r="A78" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:2">
       <c r="A79" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:2">
       <c r="A80" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:2">
       <c r="A81" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:2">
       <c r="A82" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:2">
       <c r="A83" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:2">
       <c r="A84" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:2">
       <c r="A85" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:2">
       <c r="A86" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:2">
       <c r="A87" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:2">
       <c r="A88" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:2">
       <c r="A89" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:2">
       <c r="A90" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:2">
       <c r="A91" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:2">
       <c r="A92" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:2">
       <c r="A93" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:2">
       <c r="A94" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:2">
       <c r="A95" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:2">
       <c r="A96" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:2">
       <c r="A97" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:2">
       <c r="A98" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:2">
       <c r="A99" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:2">
       <c r="A100" t="s">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:B6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="B2:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
-    <col min="2" max="2" width="30" customWidth="1"/>
+    <col customWidth="1" max="2" min="2" width="30"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:2" ht="60" customHeight="1" x14ac:dyDescent="0.85">
+    <row customHeight="1" ht="60" r="2" spans="1:2">
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="2:2" ht="81" x14ac:dyDescent="0.15">
-      <c r="B6" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
   </sheetData>
-  <phoneticPr fontId="2"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>